--- a/artfynd/A 15556-2022.xlsx
+++ b/artfynd/A 15556-2022.xlsx
@@ -811,10 +811,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>103327589</v>
+        <v>103327597</v>
       </c>
       <c r="B3" t="n">
-        <v>98431</v>
+        <v>96312</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -827,21 +827,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222771</v>
+        <v>219798</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>676628.887957159</v>
+        <v>676979.261082783</v>
       </c>
       <c r="R3" t="n">
-        <v>6694099.900877885</v>
+        <v>6694043.566919898</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
@@ -916,7 +916,7 @@
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Johan Lilja, sonja Preuss</t>
+          <t>Johan Lilja</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
@@ -927,10 +927,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>103327592</v>
+        <v>103327598</v>
       </c>
       <c r="B4" t="n">
-        <v>89940</v>
+        <v>96312</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -943,21 +943,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3884</v>
+        <v>219798</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Hasselticka</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dichomitus campestris</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Quél.) Domański &amp; Orlicz</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -967,10 +967,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>676637.6710521182</v>
+        <v>677020.7416290885</v>
       </c>
       <c r="R4" t="n">
-        <v>6694092.890824876</v>
+        <v>6694017.821727781</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
@@ -1024,21 +1024,6 @@
       <c r="AG4" t="b">
         <v>0</v>
       </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>hassel</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Corylus avellana</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Corylus avellana</t>
-        </is>
-      </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
@@ -1047,7 +1032,7 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Johan Lilja, sonja Preuss</t>
+          <t>Johan Lilja</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
@@ -1058,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>103327597</v>
+        <v>103327589</v>
       </c>
       <c r="B5" t="n">
-        <v>96312</v>
+        <v>98431</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1074,21 +1059,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>219798</v>
+        <v>222771</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1098,10 +1083,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>676979.261082783</v>
+        <v>676628.887957159</v>
       </c>
       <c r="R5" t="n">
-        <v>6694043.566919898</v>
+        <v>6694099.900877885</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1163,7 +1148,7 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Johan Lilja</t>
+          <t>Johan Lilja, sonja Preuss</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
@@ -1174,10 +1159,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>103327598</v>
+        <v>103327592</v>
       </c>
       <c r="B6" t="n">
-        <v>96312</v>
+        <v>89940</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1190,21 +1175,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>219798</v>
+        <v>3884</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Hasselticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Dichomitus campestris</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(Quél.) Domański &amp; Orlicz</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1214,10 +1199,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>677020.7416290885</v>
+        <v>676637.6710521182</v>
       </c>
       <c r="R6" t="n">
-        <v>6694017.821727781</v>
+        <v>6694092.890824876</v>
       </c>
       <c r="S6" t="n">
         <v>15</v>
@@ -1271,6 +1256,21 @@
       <c r="AG6" t="b">
         <v>0</v>
       </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>hassel</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Corylus avellana</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Corylus avellana</t>
+        </is>
+      </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Johan Lilja</t>
+          <t>Johan Lilja, sonja Preuss</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">

--- a/artfynd/A 15556-2022.xlsx
+++ b/artfynd/A 15556-2022.xlsx
@@ -811,10 +811,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>103327597</v>
+        <v>103327589</v>
       </c>
       <c r="B3" t="n">
-        <v>96312</v>
+        <v>98431</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -827,21 +827,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>219798</v>
+        <v>222771</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>676979.261082783</v>
+        <v>676628.887957159</v>
       </c>
       <c r="R3" t="n">
-        <v>6694043.566919898</v>
+        <v>6694099.900877885</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
@@ -916,7 +916,7 @@
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Johan Lilja</t>
+          <t>Johan Lilja, sonja Preuss</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
@@ -927,10 +927,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>103327598</v>
+        <v>103327592</v>
       </c>
       <c r="B4" t="n">
-        <v>96312</v>
+        <v>89940</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -943,21 +943,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>219798</v>
+        <v>3884</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Hasselticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Dichomitus campestris</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(Quél.) Domański &amp; Orlicz</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -967,10 +967,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>677020.7416290885</v>
+        <v>676637.6710521182</v>
       </c>
       <c r="R4" t="n">
-        <v>6694017.821727781</v>
+        <v>6694092.890824876</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
@@ -1024,6 +1024,21 @@
       <c r="AG4" t="b">
         <v>0</v>
       </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>hassel</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Corylus avellana</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Corylus avellana</t>
+        </is>
+      </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
@@ -1032,7 +1047,7 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Johan Lilja</t>
+          <t>Johan Lilja, sonja Preuss</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
@@ -1043,10 +1058,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>103327589</v>
+        <v>103327597</v>
       </c>
       <c r="B5" t="n">
-        <v>98431</v>
+        <v>96312</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1059,21 +1074,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>222771</v>
+        <v>219798</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1083,10 +1098,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>676628.887957159</v>
+        <v>676979.261082783</v>
       </c>
       <c r="R5" t="n">
-        <v>6694099.900877885</v>
+        <v>6694043.566919898</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1148,7 +1163,7 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Johan Lilja, sonja Preuss</t>
+          <t>Johan Lilja</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
@@ -1159,10 +1174,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>103327592</v>
+        <v>103327598</v>
       </c>
       <c r="B6" t="n">
-        <v>89940</v>
+        <v>96312</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1175,21 +1190,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3884</v>
+        <v>219798</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Hasselticka</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dichomitus campestris</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Quél.) Domański &amp; Orlicz</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1199,10 +1214,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>676637.6710521182</v>
+        <v>677020.7416290885</v>
       </c>
       <c r="R6" t="n">
-        <v>6694092.890824876</v>
+        <v>6694017.821727781</v>
       </c>
       <c r="S6" t="n">
         <v>15</v>
@@ -1256,21 +1271,6 @@
       <c r="AG6" t="b">
         <v>0</v>
       </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>hassel</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Corylus avellana</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Corylus avellana</t>
-        </is>
-      </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Johan Lilja, sonja Preuss</t>
+          <t>Johan Lilja</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
